--- a/python_work/pythonPro/Customer_Mail.xlsx
+++ b/python_work/pythonPro/Customer_Mail.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="emal" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="emal" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +420,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>mysky0420@naver.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>